--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -572,7 +572,7 @@
         <v>43413</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43777</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43777</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>43828</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45141</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43354</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>43376</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43496</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43550</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43550</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43550</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43622</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43628</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43697</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43705</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43727</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43733</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43761</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43811</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43835</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43843</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43888</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43936</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43979</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43994</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44013</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44151</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44155</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44159</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44173</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>44215</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>44220</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44220</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44220</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>44244</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>44244</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44265</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>44281</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>44287</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44292</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>44295</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44308</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44309</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44309</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44361</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44382</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44449</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44501</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44587</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44588</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44598</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44599</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44600</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44617</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44670</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44732</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44806</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44910</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44923</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44957</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44957</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44974</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44974</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44986</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44986</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44987</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44987</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44993</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>44999</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45016</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45016</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>45030</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>45070</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45092</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>45111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>45141</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>45141</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>45160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>45160</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -572,7 +572,7 @@
         <v>43413</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43777</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43777</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>43828</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45141</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43354</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>43376</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43496</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43550</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43550</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43550</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43622</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43628</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43697</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43705</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43727</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43733</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43761</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43811</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43835</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43843</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43888</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43936</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43979</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43994</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44013</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44151</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44155</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44159</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44173</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>44215</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>44220</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44220</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44220</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>44244</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>44244</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44265</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>44281</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>44287</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44292</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>44295</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44308</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44309</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44309</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44361</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44382</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44449</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44501</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44587</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44588</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44598</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44599</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44600</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44617</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44670</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44732</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44806</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44910</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44923</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44957</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44957</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44974</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44974</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44986</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44986</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44987</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44987</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44993</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>44999</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45016</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45016</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>45030</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>45070</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45092</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>45111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>45141</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>45141</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>45160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>45160</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -572,7 +572,7 @@
         <v>43413</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43777</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43777</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>43828</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45141</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43354</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>43376</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43496</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43550</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43550</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43550</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43622</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43628</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43697</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43705</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43727</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43733</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43761</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43811</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43835</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43843</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43888</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43936</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43979</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43994</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44013</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44151</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44155</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44159</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44173</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>44215</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>44220</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44220</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44220</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>44244</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>44244</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44265</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>44281</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>44287</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44292</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>44295</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44308</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44309</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44309</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44361</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44382</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44449</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44501</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44587</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44588</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44598</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44599</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44600</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44617</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44670</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44732</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44806</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44910</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44923</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44957</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44957</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44974</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44974</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44986</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44986</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44987</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44987</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44993</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>44999</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45016</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45016</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>45030</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>45070</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45092</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>45111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>45141</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>45141</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>45160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>45160</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -572,7 +572,7 @@
         <v>43413</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43777</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43777</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>43828</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45141</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43354</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>43376</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43496</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43550</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43550</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43550</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43622</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43628</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43697</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43705</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43727</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43733</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43761</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43811</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43835</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43843</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43888</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43936</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43979</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43994</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44013</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44151</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44155</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44159</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44173</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>44215</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>44220</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44220</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44220</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>44244</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>44244</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44265</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>44281</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>44287</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44292</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>44295</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44308</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44309</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44309</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44361</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44382</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44449</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44501</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44587</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44588</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44598</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44599</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44600</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44617</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44670</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44732</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44806</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44910</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44923</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44957</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44957</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44974</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44974</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44986</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44986</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44987</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44987</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44993</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>44999</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45016</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45016</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>45030</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>45070</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45092</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>45111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>45141</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>45141</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>45160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>45160</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -572,7 +572,7 @@
         <v>43413</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43777</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43777</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>43828</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45141</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43354</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>43376</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43496</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43550</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43550</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43550</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43622</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43628</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43697</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43705</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43727</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43733</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43761</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43811</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43835</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43843</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43888</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43936</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43979</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43994</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44013</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44151</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44155</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44159</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44173</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>44215</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>44220</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44220</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44220</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>44244</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>44244</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44265</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>44281</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>44287</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44292</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>44295</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44308</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44309</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44309</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44361</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44382</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44449</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44501</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44587</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44588</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44598</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44599</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44600</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44617</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44670</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44732</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44806</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44910</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44923</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44957</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44957</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44974</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44974</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44986</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44986</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44987</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44987</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44993</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>44999</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45016</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45016</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>45030</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>45070</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45092</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>45111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>45141</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>45141</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>45160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>45160</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -572,7 +572,7 @@
         <v>43413</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43777</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43777</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>43828</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45141</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43354</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>43376</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43496</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43550</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43550</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43550</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43622</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43628</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43697</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43705</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43727</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43733</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43761</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43811</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43835</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43843</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43888</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43936</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43979</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43994</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44013</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44151</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44155</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44159</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44173</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>44215</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>44220</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44220</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44220</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>44244</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>44244</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44265</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>44281</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>44287</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44292</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>44295</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44308</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44309</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44309</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44361</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44382</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44449</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44501</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44587</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44588</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44598</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44599</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44600</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44617</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44670</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44732</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44806</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44910</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44923</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44957</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44957</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44974</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44974</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44986</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44986</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44987</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44987</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44993</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>44999</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45016</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45016</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>45030</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>45070</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45092</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>45111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>45141</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>45141</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>45160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>45160</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -572,7 +572,7 @@
         <v>43413</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43777</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43777</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>43828</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45141</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43354</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>43376</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43496</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43550</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43550</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43550</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43622</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43628</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43697</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43705</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43727</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43733</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43761</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43811</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43835</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43843</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43888</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43936</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43979</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43994</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44013</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44151</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44155</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44159</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44173</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>44215</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>44220</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44220</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44220</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>44244</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>44244</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44265</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>44281</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>44287</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44292</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>44295</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44308</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44309</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44309</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44361</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44382</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44449</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44501</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44587</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44588</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44598</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44599</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44600</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44617</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44670</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44732</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44806</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44910</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44923</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44957</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44957</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44974</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44974</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44986</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44986</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44987</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44987</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44993</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>44999</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45016</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45016</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>45030</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>45070</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45092</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>45111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>45141</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>45141</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>45160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>45160</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -572,7 +572,7 @@
         <v>43413</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43777</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43777</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>43828</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45141</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43354</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>43376</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43496</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43550</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43550</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43550</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43622</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43628</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43697</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43705</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43727</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43733</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43761</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43811</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43835</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43843</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43888</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43936</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43979</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43994</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44013</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44151</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44155</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44159</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44173</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>44215</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>44220</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44220</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44220</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>44244</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>44244</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44265</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>44281</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>44287</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44292</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>44295</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44308</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44309</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44309</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44361</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44382</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44449</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44501</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44587</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44588</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44598</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44599</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44600</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44617</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44670</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44732</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44806</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44910</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44923</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44957</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44957</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44974</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44974</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44986</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44986</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44987</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44987</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44993</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>44999</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45016</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45016</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>45030</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>45070</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45092</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>45111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>45141</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>45141</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>45160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>45160</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -572,7 +572,7 @@
         <v>43413</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43777</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43777</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>43828</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45141</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43354</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>43376</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43496</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43550</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43550</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43550</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43622</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43628</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43697</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43705</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43727</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43733</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43761</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43811</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43835</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43843</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43888</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43936</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43979</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43994</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44013</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44151</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44155</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44159</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44173</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>44215</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>44220</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44220</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44220</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>44244</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>44244</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44265</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>44281</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>44287</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44292</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>44295</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44308</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44309</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44309</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44361</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44382</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44449</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44501</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44587</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44588</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44598</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44599</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44600</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44617</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44670</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44732</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44806</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44910</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44923</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44957</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44957</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44974</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44974</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44986</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44986</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44987</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44987</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44993</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>44999</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45016</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45016</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>45030</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>45070</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45092</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>45111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>45141</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>45141</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>45160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>45160</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -572,7 +572,7 @@
         <v>43413</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -626,27 +626,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/artfynd/A 62543-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/artfynd/A 62543-2018.xlsx", "A 62543-2018")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/kartor/A 62543-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/kartor/A 62543-2018.png", "A 62543-2018")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomål/A 62543-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomål/A 62543-2018.docx", "A 62543-2018")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomålsmail/A 62543-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomålsmail/A 62543-2018.docx", "A 62543-2018")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsyn/A 62543-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsyn/A 62543-2018.docx", "A 62543-2018")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsynsmail/A 62543-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsynsmail/A 62543-2018.docx", "A 62543-2018")</f>
         <v/>
       </c>
     </row>
@@ -660,7 +660,7 @@
         <v>43777</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -713,27 +713,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/artfynd/A 61588-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/artfynd/A 61588-2019.xlsx", "A 61588-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/kartor/A 61588-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/kartor/A 61588-2019.png", "A 61588-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomål/A 61588-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomål/A 61588-2019.docx", "A 61588-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomålsmail/A 61588-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomålsmail/A 61588-2019.docx", "A 61588-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsyn/A 61588-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsyn/A 61588-2019.docx", "A 61588-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsynsmail/A 61588-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsynsmail/A 61588-2019.docx", "A 61588-2019")</f>
         <v/>
       </c>
     </row>
@@ -747,7 +747,7 @@
         <v>43777</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -800,27 +800,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/artfynd/A 61593-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/artfynd/A 61593-2019.xlsx", "A 61593-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/kartor/A 61593-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/kartor/A 61593-2019.png", "A 61593-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomål/A 61593-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomål/A 61593-2019.docx", "A 61593-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomålsmail/A 61593-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomålsmail/A 61593-2019.docx", "A 61593-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsyn/A 61593-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsyn/A 61593-2019.docx", "A 61593-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsynsmail/A 61593-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsynsmail/A 61593-2019.docx", "A 61593-2019")</f>
         <v/>
       </c>
     </row>
@@ -834,7 +834,7 @@
         <v>43828</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -887,27 +887,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/artfynd/A 1233-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/artfynd/A 1233-2020.xlsx", "A 1233-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/kartor/A 1233-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/kartor/A 1233-2020.png", "A 1233-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomål/A 1233-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomål/A 1233-2020.docx", "A 1233-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomålsmail/A 1233-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomålsmail/A 1233-2020.docx", "A 1233-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsyn/A 1233-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsyn/A 1233-2020.docx", "A 1233-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsynsmail/A 1233-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsynsmail/A 1233-2020.docx", "A 1233-2020")</f>
         <v/>
       </c>
     </row>
@@ -921,7 +921,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,27 +973,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/artfynd/A 26855-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/artfynd/A 26855-2022.xlsx", "A 26855-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/kartor/A 26855-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/kartor/A 26855-2022.png", "A 26855-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomål/A 26855-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomål/A 26855-2022.docx", "A 26855-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomålsmail/A 26855-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomålsmail/A 26855-2022.docx", "A 26855-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsyn/A 26855-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsyn/A 26855-2022.docx", "A 26855-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsynsmail/A 26855-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsynsmail/A 26855-2022.docx", "A 26855-2022")</f>
         <v/>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
         <v>45141</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1059,27 +1059,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/artfynd/A 34816-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/artfynd/A 34816-2023.xlsx", "A 34816-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/kartor/A 34816-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/kartor/A 34816-2023.png", "A 34816-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomål/A 34816-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomål/A 34816-2023.docx", "A 34816-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomålsmail/A 34816-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomålsmail/A 34816-2023.docx", "A 34816-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsyn/A 34816-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsyn/A 34816-2023.docx", "A 34816-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsynsmail/A 34816-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsynsmail/A 34816-2023.docx", "A 34816-2023")</f>
         <v/>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
         <v>44168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1149,27 +1149,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/artfynd/A 64373-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/artfynd/A 64373-2020.xlsx", "A 64373-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/kartor/A 64373-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/kartor/A 64373-2020.png", "A 64373-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomål/A 64373-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomål/A 64373-2020.docx", "A 64373-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomålsmail/A 64373-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomålsmail/A 64373-2020.docx", "A 64373-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsyn/A 64373-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsyn/A 64373-2020.docx", "A 64373-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsynsmail/A 64373-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsynsmail/A 64373-2020.docx", "A 64373-2020")</f>
         <v/>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
         <v>43354</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>43376</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43496</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43550</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43550</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43550</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43622</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43628</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43697</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43705</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43727</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43733</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43761</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43811</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43835</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43843</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43888</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43936</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43979</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43994</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44013</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44151</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44155</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44159</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44173</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>44215</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>44220</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44220</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44220</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>44244</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>44244</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44265</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>44281</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>44287</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44292</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>44295</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44308</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44309</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44309</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44361</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44382</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44449</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44501</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44587</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44588</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44598</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44599</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44600</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44617</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44670</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44732</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44806</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44910</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44923</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44957</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44957</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44974</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44974</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44986</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44986</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44987</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44987</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44993</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>44999</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45016</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45016</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>45030</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>45070</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45092</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>45111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>45141</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>45141</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>45160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>45160</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -572,7 +572,7 @@
         <v>43413</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43777</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43777</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>43828</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45141</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43354</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>43376</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43496</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43550</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43550</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43550</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43622</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43628</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43697</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43705</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43727</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43733</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43761</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43811</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43835</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43843</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43888</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43936</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43979</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43994</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44013</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44151</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44155</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44159</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44173</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>44215</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>44220</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44220</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44220</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>44244</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>44244</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44265</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>44281</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>44287</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44292</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>44295</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44308</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44309</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44309</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44361</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44382</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44449</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44501</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44587</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44588</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44598</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44599</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44600</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44617</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44670</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44732</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44806</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44910</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44923</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44957</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44957</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44974</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44974</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44986</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44986</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44987</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44987</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44993</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>44999</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45016</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45016</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>45030</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>45070</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45092</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>45111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>45141</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>45141</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>45160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>45160</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -572,7 +572,7 @@
         <v>43413</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43777</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43777</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>43828</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45141</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43354</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>43376</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43496</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43550</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43550</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43550</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43622</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43628</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43697</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43705</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43727</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43733</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43761</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43811</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43835</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43843</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43888</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43936</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43979</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43994</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44013</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44151</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44155</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44159</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44173</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>44215</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>44220</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44220</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44220</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>44244</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>44244</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44265</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>44281</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>44287</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44292</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>44295</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44308</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44309</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44309</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44361</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44382</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44449</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44501</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44587</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44588</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44598</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44599</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44600</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44617</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44670</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44732</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44806</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44910</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44923</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44957</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44957</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44974</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44974</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44986</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44986</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44987</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44987</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44993</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>44999</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45016</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45016</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>45030</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>45070</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45092</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>45111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>45141</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>45141</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>45160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>45160</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y106"/>
+  <dimension ref="A1:Y107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43413</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43777</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43777</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>43828</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45141</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43354</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>43376</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43496</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43550</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43550</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43550</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43622</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43628</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43697</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43705</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43727</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43733</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43761</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43811</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43835</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43843</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43888</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43936</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43979</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43994</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44013</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44151</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44155</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44159</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44173</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>44215</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>44220</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44220</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44220</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>44244</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>44244</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44265</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>44281</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>44287</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44292</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>44295</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44308</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44309</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44309</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44361</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44382</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44449</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44501</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44587</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44588</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44598</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44599</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44600</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44617</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44670</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44732</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44806</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44910</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44923</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44957</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44957</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44974</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44974</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44986</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44986</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44987</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44987</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44993</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>44999</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45016</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45016</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>45030</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>45070</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45092</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>45111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>45141</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>45141</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>45160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="R105" s="2" t="inlineStr"/>
     </row>
-    <row r="106">
+    <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
           <t>A 38018-2023</t>
@@ -6717,7 +6717,7 @@
         <v>45160</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6763,6 +6763,63 @@
         <v>0</v>
       </c>
       <c r="R106" s="2" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>A 44434-2023</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C107" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y107"/>
+  <dimension ref="A1:Y108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43413</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43777</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43777</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>43828</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>44740</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>45141</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>43354</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>43363</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>43376</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>43413</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>43419</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>43427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>43440</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>43496</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>43496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>43496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
         <v>43496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         <v>43550</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
         <v>43550</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>43550</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>43622</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>43628</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43697</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>43705</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>43727</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>43733</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>43761</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>43811</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43835</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43843</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43888</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43936</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43943</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43979</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43994</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>44013</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
         <v>44070</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>44151</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44155</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>44159</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>44173</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>44215</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>44220</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44220</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44220</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>44244</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>44244</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44265</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>44281</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>44287</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>44292</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>44295</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44308</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>44309</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4494,7 +4494,7 @@
         <v>44309</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>44361</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>44382</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44390</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>44449</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44501</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44587</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>44588</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>44593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         <v>44598</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5064,7 +5064,7 @@
         <v>44599</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
         <v>44600</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44617</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44670</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>44732</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>44806</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         <v>44910</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
         <v>44923</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5520,7 +5520,7 @@
         <v>44957</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>44957</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
         <v>44974</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5691,7 +5691,7 @@
         <v>44974</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44986</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>44986</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>44987</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>44987</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>44993</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         <v>44999</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         <v>45016</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         <v>45016</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>45030</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>45070</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>45092</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>45111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>45141</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>45141</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>45160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>45160</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="R106" s="2" t="inlineStr"/>
     </row>
-    <row r="107">
+    <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
           <t>A 44434-2023</t>
@@ -6774,7 +6774,7 @@
         <v>45189</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6820,6 +6820,63 @@
         <v>0</v>
       </c>
       <c r="R107" s="2" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>A 44603-2023</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C108" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -572,7 +572,7 @@
         <v>43413</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43777</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43777</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>43828</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -914,14 +914,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 26855-2022</t>
+          <t>A 34816-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44740</v>
+        <v>45141</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -934,19 +934,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.2</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -958,131 +958,132 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Bokblombock
+Koralltaggsvamp
+Jättesvampmal</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/artfynd/A 34816-2023.xlsx", "A 34816-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/kartor/A 34816-2023.png", "A 34816-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomål/A 34816-2023.docx", "A 34816-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomålsmail/A 34816-2023.docx", "A 34816-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsyn/A 34816-2023.docx", "A 34816-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsynsmail/A 34816-2023.docx", "A 34816-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 26855-2022</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44740</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SVALÖV</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>2</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Skogsbräsma
 Mattlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/artfynd/A 26855-2022.xlsx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/kartor/A 26855-2022.png", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomål/A 26855-2022.docx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomålsmail/A 26855-2022.docx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsyn/A 26855-2022.docx", "A 26855-2022")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsynsmail/A 26855-2022.docx", "A 26855-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 34816-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45141</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SVALÖV</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Bokblombock
-Jättesvampmal</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/artfynd/A 34816-2023.xlsx", "A 34816-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/kartor/A 34816-2023.png", "A 34816-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomål/A 34816-2023.docx", "A 34816-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomålsmail/A 34816-2023.docx", "A 34816-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsyn/A 34816-2023.docx", "A 34816-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsynsmail/A 34816-2023.docx", "A 34816-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1093,7 +1094,7 @@
         <v>44168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1176,14 +1177,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 43459-2018</t>
+          <t>A 11170-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>43354</v>
+        <v>44987</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1196,7 +1197,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1211,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1220,27 +1221,55 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Korndådra</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/artfynd/A 11170-2023.xlsx", "A 11170-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/kartor/A 11170-2023.png", "A 11170-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomål/A 11170-2023.docx", "A 11170-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/klagomålsmail/A 11170-2023.docx", "A 11170-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsyn/A 11170-2023.docx", "A 11170-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SVALOV/tillsynsmail/A 11170-2023.docx", "A 11170-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 45825-2018</t>
+          <t>A 43459-2018</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>43363</v>
+        <v>43354</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1253,7 +1282,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.2</v>
+        <v>9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1290,14 +1319,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 50548-2018</t>
+          <t>A 45825-2018</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>43376</v>
+        <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1310,7 +1339,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>8.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1347,14 +1376,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 57156-2018</t>
+          <t>A 50548-2018</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>43396</v>
+        <v>43376</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1367,7 +1396,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1404,14 +1433,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 61515-2018</t>
+          <t>A 57156-2018</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>43413</v>
+        <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1424,7 +1453,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1461,14 +1490,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 61934-2018</t>
+          <t>A 61515-2018</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1481,7 +1510,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>11.4</v>
+        <v>1.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1518,14 +1547,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 62293-2018</t>
+          <t>A 61934-2018</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1538,7 +1567,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.9</v>
+        <v>11.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1575,14 +1604,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 61914-2018</t>
+          <t>A 62293-2018</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1595,7 +1624,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>28.2</v>
+        <v>3.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1632,14 +1661,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 62290-2018</t>
+          <t>A 61914-2018</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1652,7 +1681,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.7</v>
+        <v>28.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1689,14 +1718,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 61447-2018</t>
+          <t>A 62290-2018</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1709,7 +1738,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>13.3</v>
+        <v>0.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1746,14 +1775,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 62141-2018</t>
+          <t>A 61447-2018</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1766,7 +1795,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>10.1</v>
+        <v>13.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1803,14 +1832,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 64488-2018</t>
+          <t>A 62141-2018</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>43419</v>
+        <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1823,7 +1852,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>7.9</v>
+        <v>10.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1860,14 +1889,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 66138-2018</t>
+          <t>A 64488-2018</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>43427</v>
+        <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1880,7 +1909,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.1</v>
+        <v>7.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1917,14 +1946,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 67850-2018</t>
+          <t>A 66138-2018</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>43440</v>
+        <v>43427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1937,7 +1966,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>6.8</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1974,14 +2003,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 67846-2018</t>
+          <t>A 67850-2018</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1994,7 +2023,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2031,14 +2060,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 4559-2019</t>
+          <t>A 67846-2018</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43486</v>
+        <v>43440</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2051,7 +2080,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.7</v>
+        <v>6.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2088,14 +2117,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 7210-2019</t>
+          <t>A 4559-2019</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43496</v>
+        <v>43486</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2108,7 +2137,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2145,14 +2174,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 7238-2019</t>
+          <t>A 7210-2019</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
         <v>43496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2165,7 +2194,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2202,14 +2231,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 7227-2019</t>
+          <t>A 7238-2019</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
         <v>43496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2222,7 +2251,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2259,14 +2288,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 7248-2019</t>
+          <t>A 7227-2019</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
         <v>43496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2279,7 +2308,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2316,14 +2345,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 17377-2019</t>
+          <t>A 7248-2019</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43550</v>
+        <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2336,7 +2365,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>5.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2373,14 +2402,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 17315-2019</t>
+          <t>A 17377-2019</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2393,7 +2422,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>9.1</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2430,14 +2459,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 17370-2019</t>
+          <t>A 17315-2019</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2450,7 +2479,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>13.8</v>
+        <v>9.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2487,14 +2516,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 17366-2019</t>
+          <t>A 17370-2019</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2507,7 +2536,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.1</v>
+        <v>13.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2544,14 +2573,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 28371-2019</t>
+          <t>A 17366-2019</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>43622</v>
+        <v>43550</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2564,7 +2593,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2601,14 +2630,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 28996-2019</t>
+          <t>A 28371-2019</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>43628</v>
+        <v>43622</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2621,7 +2650,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2658,14 +2687,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 40752-2019</t>
+          <t>A 28996-2019</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43697</v>
+        <v>43628</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2715,14 +2744,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 43133-2019</t>
+          <t>A 40752-2019</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43705</v>
+        <v>43697</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2735,7 +2764,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2772,14 +2801,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 48718-2019</t>
+          <t>A 43133-2019</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43727</v>
+        <v>43705</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2792,7 +2821,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2829,14 +2858,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 49703-2019</t>
+          <t>A 48718-2019</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43733</v>
+        <v>43727</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2849,7 +2878,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2886,14 +2915,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 57614-2019</t>
+          <t>A 49703-2019</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43761</v>
+        <v>43733</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2906,7 +2935,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2943,14 +2972,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 68517-2019</t>
+          <t>A 57614-2019</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43811</v>
+        <v>43761</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2963,7 +2992,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3000,14 +3029,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 247-2020</t>
+          <t>A 68517-2019</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43835</v>
+        <v>43811</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3020,7 +3049,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3057,14 +3086,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 1391-2020</t>
+          <t>A 247-2020</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43843</v>
+        <v>43835</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3077,7 +3106,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3114,14 +3143,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 10727-2020</t>
+          <t>A 1391-2020</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43888</v>
+        <v>43843</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3134,7 +3163,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3171,14 +3200,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 19614-2020</t>
+          <t>A 10727-2020</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43936</v>
+        <v>43888</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3191,7 +3220,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3228,14 +3257,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 20031-2020</t>
+          <t>A 19614-2020</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43943</v>
+        <v>43936</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3248,7 +3277,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3285,14 +3314,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 25301-2020</t>
+          <t>A 20031-2020</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43979</v>
+        <v>43943</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3305,7 +3334,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3342,14 +3371,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 28022-2020</t>
+          <t>A 25301-2020</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43994</v>
+        <v>43979</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3362,7 +3391,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.6</v>
+        <v>1.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3399,14 +3428,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 31686-2020</t>
+          <t>A 28022-2020</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44013</v>
+        <v>43994</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3419,7 +3448,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3456,14 +3485,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 41795-2020</t>
+          <t>A 31686-2020</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44070</v>
+        <v>44013</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3476,7 +3505,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3513,14 +3542,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 59744-2020</t>
+          <t>A 41795-2020</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44151</v>
+        <v>44070</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3533,7 +3562,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3570,14 +3599,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 61223-2020</t>
+          <t>A 59744-2020</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44155</v>
+        <v>44151</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3589,13 +3618,8 @@
           <t>SVALÖV</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>11.1</v>
+        <v>2.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3632,14 +3656,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 62425-2020</t>
+          <t>A 61223-2020</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44159</v>
+        <v>44155</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,8 +3675,13 @@
           <t>SVALÖV</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>1.3</v>
+        <v>11.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3689,14 +3718,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 65863-2020</t>
+          <t>A 62425-2020</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44173</v>
+        <v>44159</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3709,7 +3738,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>12.2</v>
+        <v>1.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3746,14 +3775,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 2794-2021</t>
+          <t>A 65863-2020</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44215</v>
+        <v>44173</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3766,7 +3795,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.2</v>
+        <v>12.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3803,14 +3832,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 3594-2021</t>
+          <t>A 2794-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44220</v>
+        <v>44215</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3823,7 +3852,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3860,14 +3889,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 3592-2021</t>
+          <t>A 3594-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
         <v>44220</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3880,7 +3909,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.9</v>
+        <v>4.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3917,14 +3946,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 3593-2021</t>
+          <t>A 3592-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
         <v>44220</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3937,7 +3966,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3974,14 +4003,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 8160-2021</t>
+          <t>A 3593-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44244</v>
+        <v>44220</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3994,7 +4023,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.2</v>
+        <v>0.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4031,14 +4060,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 8201-2021</t>
+          <t>A 8160-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
         <v>44244</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4051,7 +4080,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.4</v>
+        <v>3.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4088,14 +4117,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 11764-2021</t>
+          <t>A 8201-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44265</v>
+        <v>44244</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4108,7 +4137,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>7</v>
+        <v>0.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4145,14 +4174,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 15007-2021</t>
+          <t>A 11764-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44281</v>
+        <v>44265</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4165,7 +4194,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.7</v>
+        <v>7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4202,14 +4231,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 16170-2021</t>
+          <t>A 15007-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44287</v>
+        <v>44281</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4222,7 +4251,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4259,14 +4288,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 16300-2021</t>
+          <t>A 16170-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44292</v>
+        <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4279,7 +4308,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4316,14 +4345,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 17006-2021</t>
+          <t>A 16300-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44295</v>
+        <v>44292</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4336,7 +4365,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>8.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4373,14 +4402,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 19159-2021</t>
+          <t>A 17006-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44308</v>
+        <v>44295</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4393,7 +4422,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4430,14 +4459,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 19623-2021</t>
+          <t>A 19159-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4450,7 +4479,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>8.199999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4487,14 +4516,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 19626-2021</t>
+          <t>A 19623-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
         <v>44309</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4507,7 +4536,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>17.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4544,14 +4573,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 29296-2021</t>
+          <t>A 19626-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44361</v>
+        <v>44309</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4564,7 +4593,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.7</v>
+        <v>17.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4601,14 +4630,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 34859-2021</t>
+          <t>A 29296-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44382</v>
+        <v>44361</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4621,7 +4650,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4658,14 +4687,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 36409-2021</t>
+          <t>A 34859-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44390</v>
+        <v>44382</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4678,7 +4707,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4715,14 +4744,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 48279-2021</t>
+          <t>A 36409-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44449</v>
+        <v>44390</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4735,7 +4764,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4772,14 +4801,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 61495-2021</t>
+          <t>A 48279-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44501</v>
+        <v>44449</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4792,7 +4821,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4829,14 +4858,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 3941-2022</t>
+          <t>A 61495-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44587</v>
+        <v>44501</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4849,7 +4878,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4886,14 +4915,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 4149-2022</t>
+          <t>A 3941-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4906,7 +4935,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4943,14 +4972,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 4964-2022</t>
+          <t>A 4149-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44593</v>
+        <v>44588</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4963,7 +4992,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5000,14 +5029,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 5937-2022</t>
+          <t>A 4964-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44598</v>
+        <v>44593</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5020,7 +5049,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5057,14 +5086,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 6007-2022</t>
+          <t>A 5937-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44599</v>
+        <v>44598</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5077,7 +5106,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5114,14 +5143,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 6335-2022</t>
+          <t>A 6007-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44600</v>
+        <v>44599</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5134,7 +5163,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5171,14 +5200,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 9716-2022</t>
+          <t>A 6335-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44617</v>
+        <v>44600</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5191,7 +5220,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5228,14 +5257,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 16215-2022</t>
+          <t>A 9716-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44670</v>
+        <v>44617</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5248,7 +5277,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5285,14 +5314,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 25350-2022</t>
+          <t>A 16215-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44732</v>
+        <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5305,7 +5334,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5342,14 +5371,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 37354-2022</t>
+          <t>A 25350-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44806</v>
+        <v>44732</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5362,7 +5391,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5399,14 +5428,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 61620-2022</t>
+          <t>A 37354-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44910</v>
+        <v>44806</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5419,7 +5448,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5456,14 +5485,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 62403-2022</t>
+          <t>A 61620-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44923</v>
+        <v>44910</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5476,7 +5505,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5513,14 +5542,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 4838-2023</t>
+          <t>A 62403-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44957</v>
+        <v>44923</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5533,7 +5562,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5570,14 +5599,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 4831-2023</t>
+          <t>A 4838-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
         <v>44957</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5590,7 +5619,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5627,14 +5656,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 8925-2023</t>
+          <t>A 4831-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44974</v>
+        <v>44957</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5647,7 +5676,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5684,14 +5713,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 8924-2023</t>
+          <t>A 8925-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
         <v>44974</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5704,7 +5733,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5741,14 +5770,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 10209-2023</t>
+          <t>A 8924-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44986</v>
+        <v>44974</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5761,7 +5790,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.2</v>
+        <v>7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5798,14 +5827,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 11101-2023</t>
+          <t>A 10209-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
         <v>44986</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5818,7 +5847,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5855,14 +5884,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 11170-2023</t>
+          <t>A 11101-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44987</v>
+        <v>44986</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5875,7 +5904,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5919,7 +5948,7 @@
         <v>44987</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5976,7 +6005,7 @@
         <v>44991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6033,7 +6062,7 @@
         <v>44993</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6090,7 +6119,7 @@
         <v>44999</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6147,7 +6176,7 @@
         <v>45016</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6204,7 +6233,7 @@
         <v>45016</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6261,7 +6290,7 @@
         <v>45030</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6318,7 +6347,7 @@
         <v>45070</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6375,7 +6404,7 @@
         <v>45092</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6432,7 +6461,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6489,7 +6518,7 @@
         <v>45111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6546,7 +6575,7 @@
         <v>45141</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6603,7 +6632,7 @@
         <v>45141</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6660,7 +6689,7 @@
         <v>45160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6717,7 +6746,7 @@
         <v>45160</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6774,7 +6803,7 @@
         <v>45189</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6831,7 +6860,7 @@
         <v>45189</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -572,7 +572,7 @@
         <v>43413</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43777</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43777</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>43828</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>45141</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>44987</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43354</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>43376</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>43440</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43486</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>43496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>43496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>43496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>43550</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43550</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43550</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43622</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43628</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>43697</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43705</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>43727</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>43733</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43761</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43811</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43835</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>43843</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43888</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43936</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43943</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43979</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43994</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>44013</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44070</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44151</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44155</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>44159</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>44173</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>44215</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>44220</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>44220</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44220</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>44244</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>44244</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>44265</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>44281</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>44292</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>44295</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>44308</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>44309</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>44309</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>44361</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>44382</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>44390</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>44449</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>44501</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>44587</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>44588</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>44593</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>44598</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>44599</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>44600</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44617</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>44732</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>44806</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>44910</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>44923</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>44957</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>44957</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>44974</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>44974</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>44986</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>44986</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>44987</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>44993</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>44999</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>45016</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>45016</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>45030</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>45070</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>45092</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>45111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>45141</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>45141</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>45160</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>45189</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>45189</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -572,7 +572,7 @@
         <v>43413</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43777</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43777</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>43828</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>45141</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>44987</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43354</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>43376</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>43440</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43486</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>43496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>43496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>43496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>43550</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43550</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43550</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43622</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43628</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>43697</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43705</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>43727</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>43733</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43761</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43811</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43835</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>43843</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43888</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43936</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43943</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43979</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43994</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>44013</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44070</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44151</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44155</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>44159</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>44173</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>44215</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>44220</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>44220</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44220</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>44244</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>44244</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>44265</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>44281</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>44292</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>44295</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>44308</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>44309</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>44309</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>44361</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>44382</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>44390</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>44449</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>44501</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>44587</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>44588</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>44593</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>44598</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>44599</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>44600</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44617</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>44732</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>44806</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>44910</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>44923</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>44957</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>44957</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>44974</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>44974</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>44986</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>44986</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>44987</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>44993</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>44999</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>45016</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>45016</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>45030</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>45070</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>45092</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>45111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>45141</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>45141</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>45160</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>45189</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>45189</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -572,7 +572,7 @@
         <v>43413</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43777</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43777</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>43828</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>45141</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>44987</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43354</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>43376</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>43440</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43486</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>43496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>43496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>43496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>43550</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43550</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43550</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43622</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43628</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>43697</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43705</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>43727</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>43733</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43761</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43811</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43835</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>43843</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43888</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43936</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43943</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43979</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43994</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>44013</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44070</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44151</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44155</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>44159</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>44173</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>44215</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>44220</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>44220</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44220</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>44244</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>44244</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>44265</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>44281</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>44292</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>44295</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>44308</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>44309</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>44309</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>44361</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>44382</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>44390</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>44449</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>44501</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>44587</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>44588</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>44593</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>44598</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>44599</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>44600</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44617</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>44732</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>44806</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>44910</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>44923</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>44957</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>44957</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>44974</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>44974</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>44986</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>44986</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>44987</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>44993</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>44999</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>45016</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>45016</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>45030</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>45070</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>45092</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>45111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>45141</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>45141</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>45160</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>45189</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>45189</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>

--- a/Översikt SVALÖV.xlsx
+++ b/Översikt SVALÖV.xlsx
@@ -572,7 +572,7 @@
         <v>43413</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43777</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43777</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>43828</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         <v>45141</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>44740</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>44168</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>44987</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         <v>43354</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>43376</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         <v>43413</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>43413</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>43413</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>43413</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         <v>43413</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>43419</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>43427</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>43440</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         <v>43440</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>43486</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         <v>43496</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         <v>43496</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
         <v>43496</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>43496</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
         <v>43550</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43550</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         <v>43550</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>43550</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>43622</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>43628</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         <v>43697</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>43705</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         <v>43727</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2922,7 +2922,7 @@
         <v>43733</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>43761</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>43811</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
         <v>43835</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>43843</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>43888</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>43936</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43943</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>43979</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>43994</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>44013</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44070</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44151</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44155</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>44159</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>44173</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>44215</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>44220</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>44220</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44220</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>44244</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>44244</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>44265</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>44281</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>44287</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>44292</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>44295</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>44308</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>44309</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>44309</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>44361</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>44382</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>44390</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>44449</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>44501</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>44587</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>44588</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>44593</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>44598</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>44599</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>44600</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>44617</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>44670</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>44732</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>44806</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>44910</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>44923</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>44957</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>44957</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>44974</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>44974</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>44986</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>44986</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>44987</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>44991</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>44993</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>44999</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>45016</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>45016</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>45030</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>45070</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6404,7 +6404,7 @@
         <v>45092</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45097</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>45111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>45141</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>45141</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45160</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>45160</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>45189</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>45189</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
